--- a/patient_data/patient_13.xlsx
+++ b/patient_data/patient_13.xlsx
@@ -720,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -951,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2082,32 +2082,32 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
@@ -2118,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2159,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2195,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
